--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_4.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998360915583181</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990389818142846</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997659020479451</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993435295344165</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9995642019990596</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001530013355610328</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000897068292542274</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002367256284147879</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007190347748682951</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004778831385433674</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007945726892759175</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01236937086359015</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000187323933351</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01289596058938076</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P2" t="n">
-        <v>107.5701278149057</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q2" t="n">
-        <v>162.4195399339748</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_1</t>
+          <t>model_28_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998353662925019</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990383293159644</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997654269573026</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993400143905847</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9995622300776085</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001536783393649009</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008976773710828769</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002372060518013202</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007228849262249528</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004800454890131364</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007941852518966199</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0123967067951493</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000188152808569</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01292446026813957</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P3" t="n">
-        <v>107.5612976907215</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.4107098097905</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_2</t>
+          <t>model_28_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998347066390953</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999037735007082</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997649866286735</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999336838268169</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9995604408211197</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001542940968645136</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008982321323373848</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002376513229817286</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007263637460438823</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0004820075345128056</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007938359529380326</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01242151749443334</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000188906698177</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01295032721025736</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P4" t="n">
-        <v>107.5533001136959</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.402712232765</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_3</t>
+          <t>model_28_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999834109910875</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990371963087613</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997645964588866</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999333966545365</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9995588254942553</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001548511164649296</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008987349835736816</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002380458723025659</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0007295091557280273</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004837788539545329</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007935133017938737</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01244391885480332</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000189588673286</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0129736822429155</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P5" t="n">
-        <v>107.5460928831882</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.3955050022573</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_4</t>
+          <t>model_28_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998335680379113</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990367079221718</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997642185159383</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993313814793859</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9995573614117891</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001553569310909744</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008991908710173284</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002384280575423104</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007323405890243582</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004853843232833343</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007932367788579534</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01246422605262655</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000190207956673</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01299485396019175</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P6" t="n">
-        <v>107.5395706143005</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.3889827333695</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_5</t>
+          <t>model_28_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998330825154516</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990362651170054</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997638908162991</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993290611452812</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9995560514869269</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001558101449951611</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008996042102032962</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002387594355075926</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007348820604204256</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000486820747964009</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007929672454221281</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01248239340011206</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000190762839484</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01301379472927132</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P7" t="n">
-        <v>107.5337446222917</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q7" t="n">
-        <v>162.3831567413608</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_6</t>
+          <t>model_28_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998326411160944</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990358647450186</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997635863722367</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993269612217394</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9995548623628946</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000156222171919882</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000899977939878615</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002390672968594419</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007371821152291328</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004881247060442874</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007927449456750585</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01249888682722913</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000191267295892</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01303099031572687</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P8" t="n">
-        <v>107.5284627698443</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.3778748889133</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_7</t>
+          <t>model_28_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998322421359452</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990355028271832</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997633107123791</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993250663674825</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9995537889270789</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001565946023759595</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009003157742916298</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002393460509128022</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007392575568146323</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004893018038637173</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007925336458999146</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01251377650335659</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000191723273205</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01304651387619295</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P9" t="n">
-        <v>107.5237004851761</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.3731126042451</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_8</t>
+          <t>model_28_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998318826959328</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990351760727698</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997630668844906</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993233574045933</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9995528230068726</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000156930123849959</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009006207851936376</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002395926156932177</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000741129390828062</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004903610032606397</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007923459066335504</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01252717541387359</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000192134061791</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01306048320607022</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P10" t="n">
-        <v>107.5194198454177</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q10" t="n">
-        <v>162.3688319644867</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_9</t>
+          <t>model_28_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998315565850477</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990348798361779</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999762843003737</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993218112894212</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9995519476138335</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001572345340465823</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009008973090489802</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002398190094383569</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0007428228570737093</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0004913209332560331</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000792178351456253</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01253931952087442</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000192506759946</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01307314431284785</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P11" t="n">
-        <v>107.5155440397312</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.3649561588003</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_10</t>
+          <t>model_28_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998312650089066</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990346115322698</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997626431680949</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9993204322924751</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9995511655837871</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001575067075755574</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009011477589699425</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002400210881730325</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0007443332780456197</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K12" t="n">
-        <v>0.000492178484167664</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007920318044565369</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01255016763137279</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000192839989821</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01308445424986882</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P12" t="n">
-        <v>107.5120850256482</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.3614971447172</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_11</t>
+          <t>model_28_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998309990534516</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990343710870052</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997624530295316</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9993191784716371</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995504529136631</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001577549653187343</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009013722040700988</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000240213360982318</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000745706593116549</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004929599770494335</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007918956501219135</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01256005435174284</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000193143938912</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01309476186839335</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P13" t="n">
-        <v>107.5089351623335</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.3583472814026</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998307620024355</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990341528542775</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997622874636899</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9993180602738081</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995498181203804</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001579762420369178</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009015759147421273</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002403807852488106</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007469313597532636</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004936560725010371</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007917716556050877</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01256886001341879</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000193414854359</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01310394240531708</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P14" t="n">
-        <v>107.506131806197</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.355543925266</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_13</t>
+          <t>model_28_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998305464530863</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990339565282226</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997621363921341</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9993170448449523</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995492413353513</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001581774478928632</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009017591764966665</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002405335525356416</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000748043563115014</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004942885578253279</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007916629877270594</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01257686160744656</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000193661196473</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01311228464376819</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P15" t="n">
-        <v>107.5035861343985</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.3529982534675</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_14</t>
+          <t>model_28_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998303512906054</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990337779988024</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997619911043094</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9993161338754716</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9995487193864928</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001583596235021853</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009019258258738236</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002406804711707129</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007490413516978556</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004948609114342842</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007915585972503451</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01258410201413614</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000193884239308</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01311983328956026</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P16" t="n">
-        <v>107.5012840264194</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.3506961454884</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_15</t>
+          <t>model_28_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998301761100526</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990336185212314</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997618738802607</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9993153045404406</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9995482511475197</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001585231468585868</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009020746911861087</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002407990110227539</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0007499497257352028</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004953743683789784</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007914782654956523</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01259059755764542</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000194084445654</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01312660536180436</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P17" t="n">
-        <v>107.4992198766932</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.3486319957622</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_16</t>
+          <t>model_28_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998300189277627</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990334734161357</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999761762656586</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993145664116044</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995478312256696</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00015866986962684</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000902210140423626</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000240911483148499</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000750758201256008</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004958348422022534</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007913915611319705</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01259642289012401</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000194264082557</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01313267869074666</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P18" t="n">
-        <v>107.4973696117619</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.3467817308309</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_17</t>
+          <t>model_28_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999829874829529</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990333438238115</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997616553710078</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993138949503149</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995474464149003</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001588043790027631</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009023311091697825</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002410199729737278</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000751493655541418</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004962568142575729</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007913232337589507</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01260176094848506</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000194428766253</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01313824400130345</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P19" t="n">
-        <v>107.4956748678946</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.3450869869636</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_18</t>
+          <t>model_28_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998297478516638</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990332269895364</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997615711110923</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9993132940255522</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995471074484628</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001589229072662218</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000902440168837113</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002411051786804431</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0007521518508816396</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004966285147810414</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007912623658366772</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0126064629165449</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000194573883813</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01314314614187801</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P20" t="n">
-        <v>107.494182666575</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.3435947856441</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_19</t>
+          <t>model_28_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999829632196622</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990331211005594</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997614895148244</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993127513800845</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995467988161935</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001590308661710814</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00090253901154918</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002411876908409883</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007527462126727297</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000496966951756859</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007911975644674385</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01261074407682122</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000194706061003</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01314760956001051</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P21" t="n">
-        <v>107.4928244954442</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.3422366145132</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_20</t>
+          <t>model_28_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998295282836819</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999033025698127</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997614184972463</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9993122619205471</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995465216238598</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000159127864339395</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009026280655321742</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000241259505569239</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000753282319697646</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004972709126334425</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007911488217885439</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0126145893448576</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000194824818649</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01315161852906801</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P22" t="n">
-        <v>107.4916050013738</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.3410171204429</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_21</t>
+          <t>model_28_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998294357776297</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990329402774268</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997613548866414</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993118266651461</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995462749175453</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001592142146785664</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009027078020062589</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002413238301831867</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0007537590567112773</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000497541443447232</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007910968797872603</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01261801151840362</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000194930539852</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01315518639162675</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P23" t="n">
-        <v>107.490520000716</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q23" t="n">
-        <v>162.339932119785</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_22</t>
+          <t>model_28_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998293518191144</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990328643653236</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997612854190908</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993114425564608</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999546051054508</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001592925862673596</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009027786626225305</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002413940774853751</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0007541797725189108</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000497786925002143</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0007910594133026592</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01262111668068082</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000195026492441</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01315842374709067</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P24" t="n">
-        <v>107.4895357631406</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q24" t="n">
-        <v>162.3389478822097</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_4_23</t>
+          <t>model_28_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999829274700608</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990327934464812</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997612298681318</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9993110822335748</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995458454873721</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001593645730078593</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009028448622488922</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002414502519866482</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0007545744356434918</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00049801234381507</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0007910153165500228</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01262396819577186</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000195114627876</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01316139665708258</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P25" t="n">
-        <v>107.4886321369125</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.3380442559815</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998292078518715</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990327311775471</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997611821725932</v>
+        <v>0.9999825766740374</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999310758699357</v>
+        <v>0.9999999999998389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995456673253232</v>
+        <v>0.9999938653839421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001594269733691738</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009029029875655193</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002414984828926042</v>
+        <v>7.997882478739907e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0007549288039900759</v>
+        <v>1.17371049678989e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004982077110240375</v>
+        <v>3.998941298055478e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007909853626317634</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01262643945731233</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000195191026433</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01316397312534305</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P26" t="n">
-        <v>107.4878491755972</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q26" t="n">
-        <v>162.3372612946663</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
   </sheetData>
